--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120EE1BA-50D0-4914-88DF-A8D08682A086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5E6C2-79BC-4D73-9BF3-2F65F101B26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1815" windowWidth="18090" windowHeight="9360" activeTab="1" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
+    <workbookView xWindow="3555" yWindow="1920" windowWidth="18090" windowHeight="8535" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="nota_fiscal" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Nicolas K. Nagano</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8D07348F-3305-4EA6-940D-E6C8D6FE8EDC}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{8D07348F-3305-4EA6-940D-E6C8D6FE8EDC}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>razao_social</t>
   </si>
@@ -163,6 +163,51 @@
   </si>
   <si>
     <t>456,54</t>
+  </si>
+  <si>
+    <t>000000022</t>
+  </si>
+  <si>
+    <t>000000023</t>
+  </si>
+  <si>
+    <t>n_itens</t>
+  </si>
+  <si>
+    <t>MAT.9.99.980</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>456,55</t>
+  </si>
+  <si>
+    <t>MAT.9.99.981</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>456,56</t>
+  </si>
+  <si>
+    <t>MAT.9.99.982</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>456,57</t>
+  </si>
+  <si>
+    <t>MAT.9.99.983</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>456,58</t>
   </si>
 </sst>
 </file>
@@ -191,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,10 +268,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,258 +591,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>506</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>5001</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>506</v>
+      </c>
+      <c r="E3">
+        <v>5001</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC94996-D51B-4B28-A0E7-3FEF713F5243}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1000.56</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1000.56</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1000.56</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1000.56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1000.56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1000.56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1000.56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5E6C2-79BC-4D73-9BF3-2F65F101B26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FC6151-E970-497C-9F8F-77F22FA8EEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1920" windowWidth="18090" windowHeight="8535" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
+    <workbookView xWindow="3510" yWindow="1920" windowWidth="18090" windowHeight="8535" activeTab="1" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="nota_fiscal" sheetId="1" r:id="rId1"/>
     <sheet name="nota_fiscal_itens" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -593,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC94996-D51B-4B28-A0E7-3FEF713F5243}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1065,4 +1066,16 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2589A741-74F9-4E26-AEB5-F9B86B3CEF5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FC6151-E970-497C-9F8F-77F22FA8EEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0162F3A4-F67F-41E8-A22E-5F0501E4E60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1920" windowWidth="18090" windowHeight="8535" activeTab="1" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="nota_fiscal" sheetId="1" r:id="rId1"/>
     <sheet name="nota_fiscal_itens" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
     <author>Nicolas K. Nagano</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{8D07348F-3305-4EA6-940D-E6C8D6FE8EDC}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{8D07348F-3305-4EA6-940D-E6C8D6FE8EDC}">
       <text>
         <r>
           <rPr>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>razao_social</t>
   </si>
@@ -209,6 +208,15 @@
   </si>
   <si>
     <t>456,58</t>
+  </si>
+  <si>
+    <t>000000022@3</t>
+  </si>
+  <si>
+    <t>000000023@4</t>
+  </si>
+  <si>
+    <t>cod_unico</t>
   </si>
 </sst>
 </file>
@@ -592,99 +600,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
+        <f>_xlfn.CONCAT(B2,"@",C2)</f>
+        <v>000000022@3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>506</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5001</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="str">
+        <f>_xlfn.CONCAT(B3,"@",C3)</f>
+        <v>000000023@4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>506</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5001</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -697,385 +717,398 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC94996-D51B-4B28-A0E7-3FEF713F5243}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1000.56</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1000.56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1000.56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1000.56</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1000.56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1000.56</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="F8">
         <v>1000.56</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1000.56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>1000.56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1000.56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>1000.56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1000.56</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="1">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>1000.56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="1">
-        <v>17</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="G9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2589A741-74F9-4E26-AEB5-F9B86B3CEF5F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0162F3A4-F67F-41E8-A22E-5F0501E4E60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA65D2E-E288-416F-9F6E-4D9F7FA61B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
+    <workbookView xWindow="3615" yWindow="795" windowWidth="18090" windowHeight="8535" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="nota_fiscal" sheetId="1" r:id="rId1"/>
-    <sheet name="nota_fiscal_itens" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
     <author>Nicolas K. Nagano</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{8D07348F-3305-4EA6-940D-E6C8D6FE8EDC}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{8D07348F-3305-4EA6-940D-E6C8D6FE8EDC}">
       <text>
         <r>
           <rPr>
@@ -61,10 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
-  <si>
-    <t>razao_social</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>cfop</t>
   </si>
@@ -93,9 +89,6 @@
     <t>centro_custo_emit</t>
   </si>
   <si>
-    <t>A CASA DOS MACACOS FERRAMENTAIS E EQUIPAMENTOS</t>
-  </si>
-  <si>
     <t>010104</t>
   </si>
   <si>
@@ -144,9 +137,6 @@
     <t>val_merc_propria</t>
   </si>
   <si>
-    <t>nota_fiscal</t>
-  </si>
-  <si>
     <t>MAT.9.99.978</t>
   </si>
   <si>
@@ -210,13 +200,22 @@
     <t>456,58</t>
   </si>
   <si>
-    <t>000000022@3</t>
-  </si>
-  <si>
-    <t>000000023@4</t>
-  </si>
-  <si>
-    <t>cod_unico</t>
+    <t>000000024</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>06.314.429/0001-30</t>
+  </si>
+  <si>
+    <t>09.171.140/0001-05</t>
+  </si>
+  <si>
+    <t>45.764.446/0001-20</t>
+  </si>
+  <si>
+    <t>n_nota_fiscal</t>
   </si>
 </sst>
 </file>
@@ -277,15 +276,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,516 +594,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>506</v>
+      </c>
+      <c r="E2">
+        <v>5001</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>1000.56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>506</v>
+      </c>
+      <c r="E3">
+        <v>5001</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>1000.56</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="O3" s="1">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>506</v>
+      </c>
+      <c r="E4">
+        <v>5001</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>1000.56</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>506</v>
+      </c>
+      <c r="E5">
+        <v>5001</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1000.56</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="O5" s="1">
+        <v>14</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>506</v>
+      </c>
+      <c r="E6">
+        <v>5001</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>1000.56</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="1">
+        <v>15</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>506</v>
+      </c>
+      <c r="E7">
+        <v>5001</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>1000.56</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="1">
+        <v>16</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>506</v>
+      </c>
+      <c r="E8">
+        <v>5001</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>1000.56</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="1">
+        <v>17</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>_xlfn.CONCAT(B2,"@",C2)</f>
-        <v>000000022@3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>506</v>
+      </c>
+      <c r="E9">
+        <v>5001</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>506</v>
-      </c>
-      <c r="F2">
-        <v>5001</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
-        <f>_xlfn.CONCAT(B3,"@",C3)</f>
-        <v>000000023@4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>1000.56</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>506</v>
-      </c>
-      <c r="F3">
-        <v>5001</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="1">
+        <v>17</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC94996-D51B-4B28-A0E7-3FEF713F5243}">
-  <dimension ref="A1:N10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1000.56</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>1000.56</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1000.56</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>1000.56</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>1000.56</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1">
-        <v>15</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>1000.56</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="1">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>1000.56</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="1">
-        <v>17</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="G9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA65D2E-E288-416F-9F6E-4D9F7FA61B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052CFC5-899E-403F-BE3B-9CF046ED0A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="795" windowWidth="18090" windowHeight="8535" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
+    <workbookView xWindow="75" yWindow="3885" windowWidth="19725" windowHeight="8535" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="nota_fiscal" sheetId="1" r:id="rId1"/>
@@ -137,18 +137,12 @@
     <t>val_merc_propria</t>
   </si>
   <si>
-    <t>MAT.9.99.978</t>
-  </si>
-  <si>
     <t>3,1</t>
   </si>
   <si>
     <t>456,53</t>
   </si>
   <si>
-    <t>MAT.9.99.979</t>
-  </si>
-  <si>
     <t>3,2</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>n_itens</t>
   </si>
   <si>
-    <t>MAT.9.99.980</t>
-  </si>
-  <si>
     <t>3,3</t>
   </si>
   <si>
@@ -216,6 +207,15 @@
   </si>
   <si>
     <t>n_nota_fiscal</t>
+  </si>
+  <si>
+    <t>FIT.9.99.978</t>
+  </si>
+  <si>
+    <t>DET.979</t>
+  </si>
+  <si>
+    <t>CAT.979</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +263,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -276,11 +300,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +630,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,6 +644,7 @@
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
@@ -624,13 +657,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -682,40 +715,40 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4">
         <v>506</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>5001</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>1000.56</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M2">
@@ -742,16 +775,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E3">
         <v>5001</v>
@@ -765,23 +798,23 @@
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="6">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1000.56</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>1000.56</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="M3">
         <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="1">
         <v>12</v>
@@ -801,16 +834,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E4">
         <v>5001</v>
@@ -824,23 +857,23 @@
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
+      <c r="I4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="6">
+        <v>11</v>
+      </c>
+      <c r="K4" s="6">
         <v>1000.56</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
+      <c r="L4" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="M4">
         <v>6</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O4" s="1">
         <v>13</v>
@@ -859,47 +892,47 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="10">
+        <v>511</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="8">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1000.56</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>506</v>
-      </c>
-      <c r="E5">
-        <v>5001</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>1000.56</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="M5">
         <v>7</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O5" s="1">
         <v>14</v>
@@ -919,16 +952,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>506</v>
+        <v>600</v>
       </c>
       <c r="E6">
         <v>5001</v>
@@ -942,23 +975,23 @@
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
+      <c r="I6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="8">
+        <v>13</v>
+      </c>
+      <c r="K6" s="8">
         <v>1000.56</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>38</v>
+      <c r="L6" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="M6">
         <v>8</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O6" s="1">
         <v>15</v>
@@ -978,16 +1011,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>506</v>
+        <v>611</v>
       </c>
       <c r="E7">
         <v>5001</v>
@@ -1001,23 +1034,23 @@
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
+      <c r="I7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="8">
+        <v>14</v>
+      </c>
+      <c r="K7" s="8">
         <v>1000.56</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>41</v>
+      <c r="L7" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="M7">
         <v>9</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O7" s="1">
         <v>16</v>
@@ -1037,16 +1070,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="E8">
         <v>5001</v>
@@ -1060,23 +1093,23 @@
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
+      <c r="I8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="8">
+        <v>15</v>
+      </c>
+      <c r="K8" s="8">
         <v>1000.56</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>44</v>
+      <c r="L8" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="M8">
         <v>10</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O8" s="1">
         <v>17</v>
@@ -1096,16 +1129,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
         <v>48</v>
-      </c>
-      <c r="D9">
-        <v>506</v>
       </c>
       <c r="E9">
         <v>5001</v>
@@ -1120,22 +1153,22 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K9">
         <v>1000.56</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M9">
         <v>10</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1">
         <v>17</v>

--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052CFC5-899E-403F-BE3B-9CF046ED0A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67A014D-65EE-4582-B215-244A228D9A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="3885" windowWidth="19725" windowHeight="8535" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
+    <workbookView xWindow="29985" yWindow="30" windowWidth="11400" windowHeight="11130" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="nota_fiscal" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nota_fiscal!$A$1:$C$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>cfop</t>
   </si>
@@ -89,15 +92,9 @@
     <t>centro_custo_emit</t>
   </si>
   <si>
-    <t>010104</t>
-  </si>
-  <si>
     <t>1120</t>
   </si>
   <si>
-    <t>MAT.9.99.977</t>
-  </si>
-  <si>
     <t>valor_merc_terce</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>001</t>
   </si>
   <si>
-    <t>5001</t>
-  </si>
-  <si>
     <t>mun_prest_serv</t>
   </si>
   <si>
@@ -149,12 +143,6 @@
     <t>456,54</t>
   </si>
   <si>
-    <t>000000022</t>
-  </si>
-  <si>
-    <t>000000023</t>
-  </si>
-  <si>
     <t>n_itens</t>
   </si>
   <si>
@@ -164,58 +152,85 @@
     <t>456,55</t>
   </si>
   <si>
-    <t>MAT.9.99.981</t>
-  </si>
-  <si>
     <t>3,4</t>
   </si>
   <si>
     <t>456,56</t>
   </si>
   <si>
-    <t>MAT.9.99.982</t>
-  </si>
-  <si>
     <t>3,5</t>
   </si>
   <si>
     <t>456,57</t>
   </si>
   <si>
-    <t>MAT.9.99.983</t>
-  </si>
-  <si>
     <t>3,6</t>
   </si>
   <si>
     <t>456,58</t>
   </si>
   <si>
-    <t>000000024</t>
-  </si>
-  <si>
     <t>cnpj</t>
   </si>
   <si>
-    <t>06.314.429/0001-30</t>
-  </si>
-  <si>
-    <t>09.171.140/0001-05</t>
-  </si>
-  <si>
-    <t>45.764.446/0001-20</t>
-  </si>
-  <si>
     <t>n_nota_fiscal</t>
   </si>
   <si>
-    <t>FIT.9.99.978</t>
-  </si>
-  <si>
-    <t>DET.979</t>
-  </si>
-  <si>
-    <t>CAT.979</t>
+    <t>000001382</t>
+  </si>
+  <si>
+    <t>17899925000119</t>
+  </si>
+  <si>
+    <t>09445548000110</t>
+  </si>
+  <si>
+    <t>18087144000192</t>
+  </si>
+  <si>
+    <t>08613550000198</t>
+  </si>
+  <si>
+    <t>0000000100</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>00005</t>
+  </si>
+  <si>
+    <t>00006</t>
+  </si>
+  <si>
+    <t>00007</t>
+  </si>
+  <si>
+    <t>00008</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>000001383</t>
+  </si>
+  <si>
+    <t>000001384</t>
+  </si>
+  <si>
+    <t>000001385</t>
+  </si>
+  <si>
+    <t>17.899.925/0001-19</t>
   </si>
 </sst>
 </file>
@@ -244,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +302,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -300,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -313,6 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +668,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,14 +694,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
+      <c r="A1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -672,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -690,500 +728,500 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
+      <c r="A2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="4">
         <v>506</v>
       </c>
-      <c r="E2" s="4">
-        <v>5001</v>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
+      <c r="I2" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="J2" s="6">
         <v>5</v>
       </c>
       <c r="K2" s="6">
-        <v>1000.56</v>
+        <v>100.56</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1">
         <v>11</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
+      <c r="A3" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3">
-        <v>509</v>
-      </c>
-      <c r="E3">
-        <v>5001</v>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4">
+        <v>506</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>49</v>
+      <c r="I3" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="J3" s="6">
         <v>10</v>
       </c>
       <c r="K3" s="6">
-        <v>1000.56</v>
+        <v>101.56</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M3">
         <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O3" s="1">
         <v>12</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+      <c r="A4" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <v>510</v>
-      </c>
-      <c r="E4">
-        <v>5001</v>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4">
+        <v>506</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>50</v>
+      <c r="I4" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="J4" s="6">
         <v>11</v>
       </c>
       <c r="K4" s="6">
-        <v>1000.56</v>
+        <v>102.56</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M4">
         <v>6</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O4" s="1">
         <v>13</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
+      <c r="A5" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>47</v>
+      <c r="C5" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="10">
-        <v>511</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5001</v>
+        <v>507</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>51</v>
+      <c r="I5" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="J5" s="8">
         <v>12</v>
       </c>
-      <c r="K5" s="8">
-        <v>1000.56</v>
+      <c r="K5" s="6">
+        <v>103.56</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M5">
         <v>7</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O5" s="1">
         <v>14</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
+      <c r="A6" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>510</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D6">
-        <v>600</v>
-      </c>
-      <c r="E6">
-        <v>5001</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="J6" s="8">
         <v>13</v>
       </c>
-      <c r="K6" s="8">
-        <v>1000.56</v>
+      <c r="K6" s="6">
+        <v>104.56</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M6">
         <v>8</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O6" s="1">
         <v>15</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
+      <c r="A7" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>47</v>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>611</v>
-      </c>
-      <c r="E7">
-        <v>5001</v>
+        <v>510</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>37</v>
+      <c r="I7" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="J7" s="8">
         <v>14</v>
       </c>
-      <c r="K7" s="8">
-        <v>1000.56</v>
+      <c r="K7" s="6">
+        <v>105.56</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M7">
         <v>9</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O7" s="1">
         <v>16</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
+      <c r="A8" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>565</v>
-      </c>
-      <c r="E8">
-        <v>5001</v>
+        <v>512</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>40</v>
+      <c r="I8" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J8" s="8">
         <v>15</v>
       </c>
-      <c r="K8" s="8">
-        <v>1000.56</v>
+      <c r="K8" s="6">
+        <v>106.56</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M8">
         <v>10</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O8" s="1">
         <v>17</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
+      <c r="A9" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>48</v>
-      </c>
-      <c r="E9">
-        <v>5001</v>
+        <v>512</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
+      <c r="I9" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="J9">
         <v>16</v>
       </c>
-      <c r="K9">
-        <v>1000.56</v>
+      <c r="K9" s="6">
+        <v>107.56</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M9">
         <v>10</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O9" s="1">
         <v>17</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67A014D-65EE-4582-B215-244A228D9A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C8E221-0570-4C76-A6E1-E5F6BA286F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="30" windowWidth="11400" windowHeight="11130" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="nota_fiscal" sheetId="1" r:id="rId1"/>
@@ -38,30 +38,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Nicolas K. Nagano</author>
-  </authors>
-  <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{8D07348F-3305-4EA6-940D-E6C8D6FE8EDC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>tipo de dados é preenchido automaticamente na atualização nova</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
@@ -176,9 +152,6 @@
     <t>n_nota_fiscal</t>
   </si>
   <si>
-    <t>000001382</t>
-  </si>
-  <si>
     <t>17899925000119</t>
   </si>
   <si>
@@ -221,16 +194,32 @@
     <t>003</t>
   </si>
   <si>
-    <t>000001383</t>
-  </si>
-  <si>
-    <t>000001384</t>
-  </si>
-  <si>
-    <t>000001385</t>
-  </si>
-  <si>
-    <t>17.899.925/0001-19</t>
+    <r>
+      <t>17.899.925/0001-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <t>000001415</t>
+  </si>
+  <si>
+    <t>000001416</t>
+  </si>
+  <si>
+    <t>000001417</t>
+  </si>
+  <si>
+    <t>000001418</t>
   </si>
 </sst>
 </file>
@@ -246,20 +235,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,18 +282,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,7 +294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -342,15 +320,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,15 +665,15 @@
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
@@ -742,31 +718,31 @@
       <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
       </c>
       <c r="S1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>37</v>
+      <c r="A2" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4">
         <v>506</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
@@ -778,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="6">
         <v>5</v>
@@ -802,30 +778,30 @@
         <v>12</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>37</v>
+      <c r="A3" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4">
         <v>506</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -837,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="6">
         <v>10</v>
@@ -861,30 +837,30 @@
         <v>15</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>37</v>
+      <c r="A4" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4">
         <v>506</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -896,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="6">
         <v>11</v>
@@ -917,317 +893,316 @@
         <v>13</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="10">
+    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11">
         <v>507</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="9">
         <v>1001</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="8">
-        <v>12</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="I5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="11">
+        <v>12</v>
+      </c>
+      <c r="K5" s="11">
         <v>103.56</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="11">
         <v>7</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="9">
         <v>14</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="P5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="12">
+        <v>510</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="12">
+        <v>13</v>
+      </c>
+      <c r="K6" s="12">
+        <v>104.56</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="12">
+        <v>8</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="10">
         <v>15</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>42</v>
+      <c r="P6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12">
+        <v>510</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="12">
+        <v>14</v>
+      </c>
+      <c r="K7" s="12">
+        <v>105.56</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="12">
+        <v>9</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="10">
+        <v>16</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D6">
-        <v>510</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D8" s="14">
+        <v>512</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G8" s="13">
         <v>1001</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="8">
-        <v>13</v>
-      </c>
-      <c r="K6" s="6">
-        <v>104.56</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="I8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="14">
         <v>15</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="K8" s="14">
+        <v>106.56</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="14">
+        <v>10</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="13">
+        <v>17</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S8" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="14">
+        <v>512</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1001</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="14">
+        <v>16</v>
+      </c>
+      <c r="K9" s="14">
+        <v>107.56</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="14">
+        <v>10</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="13">
+        <v>17</v>
+      </c>
+      <c r="P9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>510</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1001</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="8">
-        <v>14</v>
-      </c>
-      <c r="K7" s="6">
-        <v>105.56</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7">
-        <v>9</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="1">
-        <v>16</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>512</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1001</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="8">
-        <v>15</v>
-      </c>
-      <c r="K8" s="6">
-        <v>106.56</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="1">
-        <v>17</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>512</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1001</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9">
-        <v>16</v>
-      </c>
-      <c r="K9" s="6">
-        <v>107.56</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9">
-        <v>10</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="1">
-        <v>17</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>42</v>
+      <c r="S9" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C8E221-0570-4C76-A6E1-E5F6BA286F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F12D06-6228-42F9-A339-6232CD932689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>cfop</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>valor_unit_moeda</t>
-  </si>
-  <si>
-    <t>cod_tribut</t>
   </si>
   <si>
     <t>centro_custo_emit</t>
@@ -220,6 +217,32 @@
   </si>
   <si>
     <t>000001418</t>
+  </si>
+  <si>
+    <t>obs_geral_nota</t>
+  </si>
+  <si>
+    <t>Banco Itau
+Ag 1178
+conta 24741-5</t>
+  </si>
+  <si>
+    <t>Banco Itau
+Ag 1178
+conta 24741-8</t>
+  </si>
+  <si>
+    <t>Banco Itau
+Ag 1178
+conta 24741-9</t>
+  </si>
+  <si>
+    <t>Banco Itau
+Ag 1178
+conta 24741-11</t>
+  </si>
+  <si>
+    <t>cod_tibut_servico</t>
   </si>
 </sst>
 </file>
@@ -311,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -327,6 +350,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,52 +667,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -704,57 +732,60 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
       <c r="P1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="S1" t="s">
         <v>2</v>
       </c>
+      <c r="T1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4">
         <v>506</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5">
         <v>1001</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="6">
         <v>5</v>
@@ -763,57 +794,60 @@
         <v>100.56</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1">
         <v>11</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4">
         <v>506</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5">
         <v>1001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="6">
         <v>10</v>
@@ -822,57 +856,60 @@
         <v>101.56</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3">
         <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" s="1">
         <v>12</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>506</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5">
         <v>1001</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="6">
         <v>11</v>
@@ -881,57 +918,60 @@
         <v>102.56</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4">
         <v>6</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" s="1">
         <v>13</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="11">
         <v>507</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="9">
         <v>1001</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="11">
         <v>12</v>
@@ -940,57 +980,60 @@
         <v>103.56</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="11">
         <v>7</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="9">
         <v>14</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="12">
         <v>510</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="10">
         <v>1001</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="12">
         <v>13</v>
@@ -999,57 +1042,60 @@
         <v>104.56</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="12">
         <v>8</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" s="10">
         <v>15</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="12">
         <v>510</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="10">
         <v>1001</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="12">
         <v>14</v>
@@ -1058,57 +1104,60 @@
         <v>105.56</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="12">
         <v>9</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="10">
         <v>16</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="14">
         <v>512</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="13">
         <v>1001</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="14">
         <v>15</v>
@@ -1117,57 +1166,60 @@
         <v>106.56</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="14">
         <v>10</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8" s="13">
         <v>17</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="14">
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="14">
         <v>512</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="13">
         <v>1001</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="14">
         <v>16</v>
@@ -1176,28 +1228,31 @@
         <v>107.56</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="14">
         <v>10</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="13">
         <v>17</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F12D06-6228-42F9-A339-6232CD932689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB918851-BE0E-4495-92A2-F5E46926468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="nota_fiscal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nota_fiscal!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nota_fiscal!$A$1:$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>cfop</t>
   </si>
@@ -149,9 +149,6 @@
     <t>n_nota_fiscal</t>
   </si>
   <si>
-    <t>17899925000119</t>
-  </si>
-  <si>
     <t>09445548000110</t>
   </si>
   <si>
@@ -189,34 +186,6 @@
   </si>
   <si>
     <t>003</t>
-  </si>
-  <si>
-    <r>
-      <t>17.899.925/0001-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>19</t>
-    </r>
-  </si>
-  <si>
-    <t>000001415</t>
-  </si>
-  <si>
-    <t>000001416</t>
-  </si>
-  <si>
-    <t>000001417</t>
-  </si>
-  <si>
-    <t>000001418</t>
   </si>
   <si>
     <t>obs_geral_nota</t>
@@ -243,13 +212,64 @@
   </si>
   <si>
     <t>cod_tibut_servico</t>
+  </si>
+  <si>
+    <t>000001419</t>
+  </si>
+  <si>
+    <t>000001420</t>
+  </si>
+  <si>
+    <t>000001421</t>
+  </si>
+  <si>
+    <t>000001422</t>
+  </si>
+  <si>
+    <t>dados_adicionais</t>
+  </si>
+  <si>
+    <t>10/12/2022</t>
+  </si>
+  <si>
+    <t>13/12/2022</t>
+  </si>
+  <si>
+    <t>15/12/2022</t>
+  </si>
+  <si>
+    <t>17/12/2022</t>
+  </si>
+  <si>
+    <t>02376055000800</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>0000000110</t>
+  </si>
+  <si>
+    <t>0000000120</t>
+  </si>
+  <si>
+    <t>0000000150</t>
+  </si>
+  <si>
+    <t>0000000140</t>
+  </si>
+  <si>
+    <t>000001423</t>
+  </si>
+  <si>
+    <t>74261884000174</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,16 +283,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +333,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -334,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -351,6 +369,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,21 +709,22 @@
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -722,58 +749,61 @@
       <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
-        <v>60</v>
-      </c>
       <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4">
         <v>506</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>16</v>
@@ -784,58 +814,61 @@
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="I2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="6">
         <v>5</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>100.56</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="1">
         <v>11</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>56</v>
+      <c r="T2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4">
         <v>506</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -846,58 +879,61 @@
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="6">
         <v>10</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>101.56</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>12</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D4" s="4">
         <v>506</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
@@ -908,182 +944,191 @@
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="6">
+        <v>11</v>
+      </c>
+      <c r="L4" s="6">
+        <v>102.56</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4">
+        <v>506</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="6">
+        <v>12</v>
+      </c>
+      <c r="L5" s="6">
+        <v>200.56</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="11">
+        <v>507</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1001</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="6">
-        <v>11</v>
-      </c>
-      <c r="K4" s="6">
-        <v>102.56</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="1">
-        <v>13</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="K6" s="11">
+        <v>12</v>
+      </c>
+      <c r="L6" s="11">
+        <v>103.56</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="11">
+        <v>7</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="9">
         <v>14</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>56</v>
+      <c r="Q6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="11">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="11">
-        <v>507</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1001</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="11">
-        <v>12</v>
-      </c>
-      <c r="K5" s="11">
-        <v>103.56</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="11">
-        <v>7</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="9">
-        <v>14</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="15" t="s">
+    <row r="7" spans="1:21" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="12">
-        <v>510</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1001</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="12">
-        <v>13</v>
-      </c>
-      <c r="K6" s="12">
-        <v>104.56</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="12">
-        <v>8</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="10">
-        <v>15</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="12">
         <v>510</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>16</v>
@@ -1094,120 +1139,126 @@
       <c r="H7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="I7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="12">
+        <v>13</v>
+      </c>
+      <c r="L7" s="12">
+        <v>104.56</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="12">
+        <v>8</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="12">
+      <c r="R7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="12">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="12">
+        <v>510</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="12">
+        <v>14</v>
+      </c>
+      <c r="L8" s="12">
         <v>105.56</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N8" s="12">
         <v>9</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="O8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P8" s="10">
         <v>16</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="10" t="s">
+      <c r="Q8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="15" t="s">
+      <c r="T8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="14">
-        <v>512</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1001</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="14">
-        <v>15</v>
-      </c>
-      <c r="K8" s="14">
-        <v>106.56</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="14">
-        <v>10</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="13">
-        <v>17</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>39</v>
+      <c r="C9" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D9" s="14">
         <v>512</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>16</v>
@@ -1218,41 +1269,174 @@
       <c r="H9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="I9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="14">
+        <v>15</v>
+      </c>
+      <c r="L9" s="14">
+        <v>106.56</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="14">
+        <v>10</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="13">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="14">
+        <v>512</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="14">
+      <c r="G10" s="13">
+        <v>1001</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="14">
+        <v>16</v>
+      </c>
+      <c r="L10" s="14">
         <v>107.56</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="M10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="14">
+      <c r="N10" s="14">
         <v>10</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="O10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="13">
+      <c r="P10" s="13">
         <v>17</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="Q10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="13" t="s">
+      <c r="R10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>59</v>
+      <c r="T10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="19">
+        <v>515</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1001</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="19">
+        <v>16</v>
+      </c>
+      <c r="L11" s="19">
+        <v>107.56</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="19">
+        <v>10</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="18">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB918851-BE0E-4495-92A2-F5E46926468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804FBCC7-C8CE-4C63-9482-128182BA3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>cfop</t>
   </si>
@@ -189,16 +189,6 @@
   </si>
   <si>
     <t>obs_geral_nota</t>
-  </si>
-  <si>
-    <t>Banco Itau
-Ag 1178
-conta 24741-5</t>
-  </si>
-  <si>
-    <t>Banco Itau
-Ag 1178
-conta 24741-8</t>
   </si>
   <si>
     <t>Banco Itau
@@ -206,63 +196,93 @@
 conta 24741-9</t>
   </si>
   <si>
-    <t>Banco Itau
+    <t>cod_tibut_servico</t>
+  </si>
+  <si>
+    <t>dados_adicionais</t>
+  </si>
+  <si>
+    <t>10/12/2022</t>
+  </si>
+  <si>
+    <t>13/12/2022</t>
+  </si>
+  <si>
+    <t>15/12/2022</t>
+  </si>
+  <si>
+    <t>17/12/2022</t>
+  </si>
+  <si>
+    <t>02376055000800</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>0000000110</t>
+  </si>
+  <si>
+    <t>0000000120</t>
+  </si>
+  <si>
+    <t>0000000150</t>
+  </si>
+  <si>
+    <t>0000000140</t>
+  </si>
+  <si>
+    <t>74261884000174</t>
+  </si>
+  <si>
+    <t>0000000170</t>
+  </si>
+  <si>
+    <t>0000000610</t>
+  </si>
+  <si>
+    <t>0000200001</t>
+  </si>
+  <si>
+    <t>0000360059</t>
+  </si>
+  <si>
+    <t>0000190002</t>
+  </si>
+  <si>
+    <t>Banco Bradesco
 Ag 1178
 conta 24741-11</t>
   </si>
   <si>
-    <t>cod_tibut_servico</t>
-  </si>
-  <si>
-    <t>000001419</t>
-  </si>
-  <si>
-    <t>000001420</t>
-  </si>
-  <si>
-    <t>000001421</t>
-  </si>
-  <si>
-    <t>000001422</t>
-  </si>
-  <si>
-    <t>dados_adicionais</t>
-  </si>
-  <si>
-    <t>10/12/2022</t>
-  </si>
-  <si>
-    <t>13/12/2022</t>
-  </si>
-  <si>
-    <t>15/12/2022</t>
-  </si>
-  <si>
-    <t>17/12/2022</t>
-  </si>
-  <si>
-    <t>02376055000800</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>0000000110</t>
-  </si>
-  <si>
-    <t>0000000120</t>
-  </si>
-  <si>
-    <t>0000000150</t>
-  </si>
-  <si>
-    <t>0000000140</t>
-  </si>
-  <si>
-    <t>000001423</t>
-  </si>
-  <si>
-    <t>74261884000174</t>
+    <t>Banco NUBANK
+Ag 1178
+conta 24741-11</t>
+  </si>
+  <si>
+    <t>Banco Santander
+Ag 1178
+conta 24741-8</t>
+  </si>
+  <si>
+    <t>Banco BTG PACTUAL
+Ag 1178
+conta 24741-5</t>
+  </si>
+  <si>
+    <t>000001518</t>
+  </si>
+  <si>
+    <t>000001519</t>
+  </si>
+  <si>
+    <t>000001520</t>
+  </si>
+  <si>
+    <t>000001521</t>
+  </si>
+  <si>
+    <t>000001522</t>
   </si>
 </sst>
 </file>
@@ -695,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -774,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s">
         <v>12</v>
@@ -789,15 +809,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4">
         <v>506</v>
@@ -815,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>40</v>
@@ -839,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>11</v>
@@ -848,21 +868,21 @@
         <v>14</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4">
         <v>506</v>
@@ -880,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>41</v>
@@ -913,21 +933,21 @@
         <v>11</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4">
         <v>506</v>
@@ -945,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>42</v>
@@ -969,7 +989,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>11</v>
@@ -978,21 +998,21 @@
         <v>14</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4">
         <v>506</v>
@@ -1010,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>45</v>
@@ -1043,15 +1063,15 @@
         <v>14</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B6" s="11">
         <v>4</v>
@@ -1075,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>43</v>
@@ -1108,15 +1128,15 @@
         <v>48</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -1140,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>44</v>
@@ -1173,15 +1193,15 @@
         <v>11</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B8" s="12">
         <v>4</v>
@@ -1205,7 +1225,7 @@
         <v>8</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>45</v>
@@ -1238,15 +1258,15 @@
         <v>14</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B9" s="14">
         <v>4</v>
@@ -1270,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>46</v>
@@ -1303,15 +1323,15 @@
         <v>14</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B10" s="14">
         <v>1</v>
@@ -1335,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>47</v>
@@ -1368,21 +1388,21 @@
         <v>14</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D11" s="19">
         <v>515</v>
@@ -1400,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>47</v>
@@ -1436,7 +1456,7 @@
         <v>39</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/DataInput.xlsx
+++ b/DataInput.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804FBCC7-C8CE-4C63-9482-128182BA3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD2FCD-F115-46B8-925E-ACFBFDEA3B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
+    <workbookView xWindow="1920" yWindow="2340" windowWidth="19725" windowHeight="10815" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="nota_fiscal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nota_fiscal!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nota_fiscal!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
   <si>
     <t>cfop</t>
   </si>
@@ -119,12 +119,6 @@
     <t>n_itens</t>
   </si>
   <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>456,55</t>
-  </si>
-  <si>
     <t>3,4</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>n_nota_fiscal</t>
   </si>
   <si>
-    <t>09445548000110</t>
-  </si>
-  <si>
     <t>18087144000192</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
   </si>
   <si>
     <t>00003</t>
-  </si>
-  <si>
-    <t>00004</t>
   </si>
   <si>
     <t>00005</t>
@@ -205,9 +193,6 @@
     <t>10/12/2022</t>
   </si>
   <si>
-    <t>13/12/2022</t>
-  </si>
-  <si>
     <t>15/12/2022</t>
   </si>
   <si>
@@ -236,9 +221,6 @@
   </si>
   <si>
     <t>0000000170</t>
-  </si>
-  <si>
-    <t>0000000610</t>
   </si>
   <si>
     <t>0000200001</t>
@@ -260,29 +242,21 @@
 conta 24741-11</t>
   </si>
   <si>
-    <t>Banco Santander
-Ag 1178
-conta 24741-8</t>
-  </si>
-  <si>
     <t>Banco BTG PACTUAL
 Ag 1178
 conta 24741-5</t>
   </si>
   <si>
-    <t>000001518</t>
-  </si>
-  <si>
-    <t>000001519</t>
-  </si>
-  <si>
-    <t>000001520</t>
-  </si>
-  <si>
-    <t>000001521</t>
-  </si>
-  <si>
-    <t>000001522</t>
+    <t>000001562</t>
+  </si>
+  <si>
+    <t>000001563</t>
+  </si>
+  <si>
+    <t>000001564</t>
+  </si>
+  <si>
+    <t>000001565</t>
   </si>
 </sst>
 </file>
@@ -304,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,12 +306,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -383,20 +351,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,9 +679,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -729,7 +695,7 @@
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -746,13 +712,13 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -769,8 +735,8 @@
       <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>52</v>
+      <c r="I1" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -794,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R1" t="s">
         <v>12</v>
@@ -806,24 +772,24 @@
         <v>2</v>
       </c>
       <c r="U1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4">
         <v>506</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>16</v>
@@ -834,11 +800,11 @@
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>53</v>
+      <c r="I2" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K2" s="6">
         <v>5</v>
@@ -859,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>11</v>
@@ -868,27 +834,27 @@
         <v>14</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4">
         <v>506</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -899,11 +865,11 @@
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>53</v>
+      <c r="I3" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K3" s="6">
         <v>10</v>
@@ -924,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>11</v>
@@ -933,27 +899,27 @@
         <v>11</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>72</v>
+        <v>54</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4">
         <v>506</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
@@ -964,11 +930,11 @@
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>53</v>
+      <c r="I4" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K4" s="6">
         <v>11</v>
@@ -989,7 +955,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>11</v>
@@ -998,27 +964,27 @@
         <v>14</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4">
         <v>506</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -1029,11 +995,11 @@
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>53</v>
+      <c r="I5" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K5" s="6">
         <v>12</v>
@@ -1054,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>11</v>
@@ -1063,27 +1029,27 @@
         <v>14</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="11">
+        <v>67</v>
+      </c>
+      <c r="B6" s="10">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10">
+        <v>510</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="11">
-        <v>507</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>16</v>
@@ -1094,369 +1060,304 @@
       <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>54</v>
+      <c r="I6" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="11">
-        <v>12</v>
-      </c>
-      <c r="L6" s="11">
-        <v>103.56</v>
+        <v>40</v>
+      </c>
+      <c r="K6" s="10">
+        <v>13</v>
+      </c>
+      <c r="L6" s="10">
+        <v>104.56</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="11">
-        <v>7</v>
+      <c r="N6" s="10">
+        <v>8</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="P6" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="12">
+    <row r="7" spans="1:21" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="10">
         <v>510</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>1001</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="10">
+        <v>14</v>
+      </c>
+      <c r="L7" s="10">
+        <v>105.56</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="10">
+        <v>9</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="12">
-        <v>13</v>
-      </c>
-      <c r="L7" s="12">
-        <v>104.56</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="12">
-        <v>8</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="10">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="10" t="s">
+      <c r="R7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" s="15" t="s">
-        <v>50</v>
+      <c r="T7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>75</v>
+      <c r="A8" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
+      <c r="C8" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="12">
-        <v>510</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <v>1001</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>45</v>
+      <c r="I8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="K8" s="12">
+        <v>15</v>
+      </c>
+      <c r="L8" s="12">
+        <v>106.56</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="12">
+        <v>10</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="11">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="12">
-        <v>105.56</v>
-      </c>
-      <c r="M8" s="10" t="s">
+      <c r="T8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="12">
+        <v>512</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1001</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="12">
+        <v>16</v>
+      </c>
+      <c r="L9" s="12">
+        <v>107.56</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="12">
-        <v>9</v>
-      </c>
-      <c r="O8" s="10" t="s">
+      <c r="N9" s="12">
+        <v>10</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P9" s="11">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="17">
+        <v>515</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="10" t="s">
+      <c r="G10" s="16">
+        <v>1001</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="17">
+        <v>16</v>
+      </c>
+      <c r="L10" s="17">
+        <v>107.56</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="17">
+        <v>10</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="16">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="14">
-        <v>4</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="14">
-        <v>512</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1001</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="14">
-        <v>15</v>
-      </c>
-      <c r="L9" s="14">
-        <v>106.56</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="14">
-        <v>10</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="13">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="14">
-        <v>512</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1001</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="14">
-        <v>16</v>
-      </c>
-      <c r="L10" s="14">
-        <v>107.56</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="14">
-        <v>10</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="13">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="T10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D11" s="19">
-        <v>515</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1001</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="19">
-        <v>16</v>
-      </c>
-      <c r="L11" s="19">
-        <v>107.56</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="19">
-        <v>10</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="18">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" s="21" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
